--- a/medicine/Pharmacie/Classe_ATC_P02/Classe_ATC_P02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_P02/Classe_ATC_P02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC P02, dénommée « Anthelminthiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP52[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC P02, dénommée « Anthelminthiques », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QP52. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique P de la classification, intitulé « Antiparasitaires, insecticides et répulsifs ».
 </t>
         </is>
       </c>
@@ -513,99 +525,386 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>P02BA Dérivés de la quinoléïne et apparentés
-P02BA01 Praziquantel
-P02BA02 Oxamniquine
-P02BB Organophosphorés
-P02BB01 Métrifonate
-P02BX Autres antitrématodes
-P02BX01 Bithionol (en)
+          <t>P02BA Dérivés de la quinoléïne et apparentés</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>P02BA01 Praziquantel
+P02BA02 Oxamniquine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>P02B Antitrématodes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P02BB Organophosphorés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>P02BB01 Métrifonate</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>P02B Antitrématodes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P02BX Autres antitrématodes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>P02BX01 Bithionol (en)
 P02BX02 Niridazole (en)
 P02BX03 Stibophène (en)
 P02BX04 Triclabendazole</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_P02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>P02C Antinématodes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>P02CA Dérivés du benzimidazole
-P02CA01 Mébendazole
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P02CA Dérivés du benzimidazole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>P02CA01 Mébendazole
 P02CA02 Tiabendazole
 P02CA03 Albendazole
 P02CA04 Ciclobendazole (en)
 P02CA05 Flubendazole
 P02CA06 Fenbendazole (en)
-P02CA51 Mébendazole, associations
-P02CB Pipérazine et dérivés
-P02CB01 Pipérazine
-P02CB02 Diéthylcarbamazine
-P02CC Dérivés de la tétrahydropyrimidine
-P02CC01 Pyrantel
-P02CC02 Oxantel
-P02CE Dérivés de l'imidazothiazole
-P02CE01 Lévamisole
-P02CF Avermectines
-P02CF01 Ivermectine
-P02CX Autres antinématodes
-P02CX01 Pyrvinium (en)
+P02CA51 Mébendazole, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>P02C Antinématodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P02CB Pipérazine et dérivés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>P02CB01 Pipérazine
+P02CB02 Diéthylcarbamazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>P02C Antinématodes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>P02CC Dérivés de la tétrahydropyrimidine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>P02CC01 Pyrantel
+P02CC02 Oxantel</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>P02C Antinématodes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>P02CE Dérivés de l'imidazothiazole</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>P02CE01 Lévamisole</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>P02C Antinématodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>P02CF Avermectines</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>P02CF01 Ivermectine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>P02C Antinématodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>P02CX Autres antinématodes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>P02CX01 Pyrvinium (en)
 P02CX02 Béphénium (en)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_P02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>P02D Anticestodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>P02DA Dérivés de l'acide salicylique
-P02DA01 Niclosamide
-P02DX Autres anticestodes
-P02DX01 Désaspidine (en)
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>P02DA Dérivés de l'acide salicylique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>P02DA01 Niclosamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_P02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>P02D Anticestodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>P02DX Autres anticestodes</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>P02DX01 Désaspidine (en)
 P02DX02 Dichlorophène</t>
         </is>
       </c>
